--- a/uts/data-facial-wash.xlsx
+++ b/uts/data-facial-wash.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\py_code\Fuzzy-Logic\uts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AE8548-D6CE-489D-B186-EF89DEEAC657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC21D97-42E4-48D8-B78E-C6FACA6EDE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -151,9 +162,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -220,9 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -507,7 +517,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E36"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +549,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>3.504</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1334</v>
       </c>
     </row>
@@ -556,10 +566,10 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>4.2309999999999999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>978</v>
       </c>
     </row>
@@ -573,10 +583,10 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>4.883</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1243</v>
       </c>
     </row>
@@ -593,7 +603,7 @@
       <c r="D5" s="7">
         <v>4.6539999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>256</v>
       </c>
     </row>
@@ -607,10 +617,10 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>4.7640000000000002</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>660</v>
       </c>
     </row>
@@ -624,10 +634,10 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>4.367</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>750</v>
       </c>
     </row>
@@ -641,10 +651,10 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
         <v>770</v>
       </c>
     </row>
@@ -658,10 +668,10 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>4.9059999999999997</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>696</v>
       </c>
     </row>
@@ -675,10 +685,10 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>4.0039999999999996</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>345</v>
       </c>
     </row>
@@ -692,10 +702,10 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>3.0470000000000002</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>608</v>
       </c>
     </row>
@@ -709,10 +719,10 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
         <v>550</v>
       </c>
     </row>
@@ -726,10 +736,10 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>4.3239999999999998</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>677</v>
       </c>
     </row>
@@ -743,10 +753,10 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>4.5640000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>854</v>
       </c>
     </row>
@@ -760,10 +770,10 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>3.7650000000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>550</v>
       </c>
     </row>
@@ -777,10 +787,10 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
         <v>888</v>
       </c>
     </row>
@@ -794,10 +804,10 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>3.0049999999999999</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>765</v>
       </c>
     </row>
@@ -811,10 +821,10 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>3.7639999999999998</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>850</v>
       </c>
     </row>
@@ -828,10 +838,10 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>3.0070000000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1016</v>
       </c>
     </row>
@@ -845,10 +855,10 @@
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>3.9929999999999999</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>696</v>
       </c>
     </row>
@@ -862,10 +872,10 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>3.879</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>783</v>
       </c>
     </row>
@@ -879,10 +889,10 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
         <v>487</v>
       </c>
     </row>
@@ -896,10 +906,10 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
         <v>750</v>
       </c>
     </row>
@@ -913,10 +923,10 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>3.754</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1242</v>
       </c>
     </row>
@@ -930,10 +940,10 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>4.6479999999999997</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>707</v>
       </c>
     </row>
@@ -947,10 +957,10 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>4.1040000000000001</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>900</v>
       </c>
     </row>
@@ -964,10 +974,10 @@
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
-        <v>5</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
         <v>780</v>
       </c>
     </row>
@@ -981,10 +991,10 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>3.0449999999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>660</v>
       </c>
     </row>
@@ -998,10 +1008,10 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>3.9020000000000001</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>693</v>
       </c>
     </row>
@@ -1015,10 +1025,10 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>4.024</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>869</v>
       </c>
     </row>
@@ -1032,10 +1042,10 @@
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>4.0529999999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>339</v>
       </c>
     </row>
@@ -1049,10 +1059,10 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>4.3520000000000003</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>306</v>
       </c>
     </row>
@@ -1066,10 +1076,10 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <v>4.7210000000000001</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>1142</v>
       </c>
     </row>
@@ -1083,10 +1093,10 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="6">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5">
         <v>770</v>
       </c>
     </row>
@@ -1100,10 +1110,10 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <v>4.0919999999999996</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>1340</v>
       </c>
     </row>
@@ -1117,10 +1127,10 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <v>4.3019999999999996</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>870</v>
       </c>
     </row>

--- a/uts/data-facial-wash.xlsx
+++ b/uts/data-facial-wash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\py_code\Fuzzy-Logic\uts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC21D97-42E4-48D8-B78E-C6FACA6EDE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE73E80-76EC-4142-9228-A1745E580C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Simple Moisturising Facial Wash</t>
   </si>
   <si>
-    <t>SK-II Facial Treatment Cleansing Gel</t>
-  </si>
-  <si>
     <t>Pigeon Facial Foam</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Wardah Nature Daily Mineral Plus Clarifying Facial Foam</t>
+  </si>
+  <si>
+    <t>Innisfree Bija Trouble Facial Foam</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,13 +847,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4">
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6">
         <v>3.9929999999999999</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>9450</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>31635</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4">
         <v>38000</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>16900</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4">
         <v>31927</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4">
         <v>32400</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>100000</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4">
         <v>32000</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4">
         <v>18250</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4">
         <v>32500</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4">
         <v>65000</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4">
         <v>28000</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4">
         <v>84915</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4">
         <v>32580</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4">
         <v>32000</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>15875</v>
